--- a/Integration/persistance_des_données/dictionnaire_de_données/exercice_2.xlsx
+++ b/Integration/persistance_des_données/dictionnaire_de_données/exercice_2.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="27">
   <si>
     <t>Code</t>
   </si>
@@ -93,6 +93,18 @@
   </si>
   <si>
     <t>date</t>
+  </si>
+  <si>
+    <t>dateNaissance</t>
+  </si>
+  <si>
+    <t>Date de naissance du stagiaire</t>
+  </si>
+  <si>
+    <t>adresseStagiaire</t>
+  </si>
+  <si>
+    <t>Adresse postal du stagiaire</t>
   </si>
 </sst>
 </file>
@@ -433,11 +445,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -445,9 +455,10 @@
     <col min="2" max="2" width="41.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -460,8 +471,9 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -474,8 +486,9 @@
       <c r="D2" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -489,7 +502,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -503,71 +516,97 @@
         <v>50</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="1">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D7" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
